--- a/result.xlsx
+++ b/result.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,505 +464,503 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>单元</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>楼层</t>
         </is>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>四季名苑1栋</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>一单元</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
+          <t>松风明月花园3栋1单元</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6104507</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4431840</t>
+          <t>6145052</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4404857</t>
+          <t>4574925</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5223307</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5283219</t>
-        </is>
-      </c>
+          <t>4556151</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n">
-        <v>5</v>
+      <c r="B3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6123335</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4500510</t>
+          <t>6163883</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4473339</t>
+          <t>4589004</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5299950</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5359779</t>
-        </is>
-      </c>
+          <t>4570230</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n">
-        <v>6</v>
+      <c r="B4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6123335</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4512413</t>
+          <t>6163883</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4485210</t>
+          <t>4589004</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5313235</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>5373051</t>
-        </is>
-      </c>
+          <t>4570230</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n">
-        <v>8</v>
+      <c r="B5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6142166</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4527064</t>
+          <t>6182711</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4499818</t>
+          <t>4603086</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5329584</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5389384</t>
-        </is>
-      </c>
+          <t>4584312</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n">
-        <v>9</v>
+      <c r="B6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6160994</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4534389</t>
+          <t>6201542</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4507123</t>
+          <t>4617165</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5337759</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>5397550</t>
-        </is>
-      </c>
+          <t>4598391</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n">
-        <v>11</v>
+      <c r="B7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6179825</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4547207</t>
+          <t>6220370</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4519908</t>
+          <t>4631247</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5352067</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>5411840</t>
-        </is>
-      </c>
+          <t>4612473</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n">
-        <v>12</v>
+      <c r="B8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6198653</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4552701</t>
+          <t>6239201</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4525385</t>
+          <t>4645326</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5358197</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>5417966</t>
-        </is>
-      </c>
+          <t>4626552</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n">
-        <v>14</v>
+      <c r="B9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6217484</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4563688</t>
+          <t>6258029</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4536342</t>
+          <t>4659408</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5370460</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>5430216</t>
-        </is>
-      </c>
+          <t>4640634</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n">
-        <v>15</v>
+      <c r="B10" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6236312</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4569180</t>
+          <t>6276860</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4541822</t>
+          <t>4673487</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5376592</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>5436339</t>
-        </is>
-      </c>
+          <t>4654713</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n">
-        <v>17</v>
+      <c r="B11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6255143</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4579253</t>
+          <t>6295688</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4551865</t>
+          <t>4687569</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5387832</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>5447568</t>
-        </is>
-      </c>
+          <t>4668795</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n">
-        <v>18</v>
+      <c r="B12" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>6273971</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4583831</t>
+          <t>6314519</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4556432</t>
+          <t>4701648</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5392943</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>5452672</t>
-        </is>
-      </c>
+          <t>4682874</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n">
-        <v>20</v>
+      <c r="B13" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6273971</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4592987</t>
+          <t>6314519</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4565563</t>
+          <t>4701648</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5403162</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>5462880</t>
-        </is>
-      </c>
+          <t>4682874</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n">
-        <v>21</v>
+      <c r="B14" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6292802</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4597565</t>
+          <t>6333347</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4570127</t>
+          <t>4715730</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5408270</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>5467984</t>
-        </is>
-      </c>
+          <t>4696956</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n">
-        <v>23</v>
+      <c r="B15" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6311630</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4606721</t>
+          <t>6352178</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4579258</t>
+          <t>4729809</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5418489</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>5478192</t>
-        </is>
-      </c>
+          <t>4711035</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n">
-        <v>24</v>
+      <c r="B16" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6330461</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4611299</t>
+          <t>6371006</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4583825</t>
+          <t>4743891</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5423600</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>5483296</t>
-        </is>
-      </c>
+          <t>4725117</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n">
-        <v>26</v>
+      <c r="B17" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6349289</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4620455</t>
+          <t>6389837</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4592956</t>
+          <t>4757970</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5433819</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>5493504</t>
-        </is>
-      </c>
+          <t>4739196</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>三单元</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="B18" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6368120</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6408665</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5058548</t>
+          <t>4772052</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6609339</t>
+          <t>4753278</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -970,1237 +968,1451 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n">
-        <v>4</v>
+      <c r="B19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6386948</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5112863</t>
+          <t>6427496</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5099824</t>
+          <t>4786131</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6658515</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>6616358</t>
-        </is>
-      </c>
+          <t>4767357</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n">
-        <v>7</v>
+      <c r="B20" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>6405779</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5170487</t>
+          <t>6446324</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5157609</t>
+          <t>4800213</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6727360</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>6683698</t>
-        </is>
-      </c>
+          <t>4781439</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n">
-        <v>8</v>
+      <c r="B21" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>6424607</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5178719</t>
+          <t>6465155</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5165864</t>
+          <t>4814292</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6737195</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>6693318</t>
-        </is>
-      </c>
+          <t>4795518</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n">
-        <v>10</v>
+      <c r="B22" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>6443438</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5195183</t>
+          <t>6483983</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5182376</t>
+          <t>4828374</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6756867</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>6712558</t>
-        </is>
-      </c>
+          <t>4809600</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n">
-        <v>11</v>
+      <c r="B23" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>6443438</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5201357</t>
+          <t>6483983</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5188566</t>
+          <t>4828374</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6764242</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>6719773</t>
-        </is>
-      </c>
+          <t>4809600</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n">
-        <v>13</v>
+      <c r="B24" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>6462266</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5213705</t>
+          <t>6502814</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5200950</t>
+          <t>4842453</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6778996</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>6734203</t>
-        </is>
-      </c>
+          <t>4823679</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n">
-        <v>14</v>
+      <c r="B25" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>6481097</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5219879</t>
+          <t>6521642</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5207140</t>
+          <t>4856535</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6786371</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>6741418</t>
-        </is>
-      </c>
+          <t>4837761</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="n">
-        <v>16</v>
+      <c r="B26" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>6499925</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5232227</t>
+          <t>6540473</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5219523</t>
+          <t>4870614</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6801124</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>6755848</t>
-        </is>
-      </c>
+          <t>4851840</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="n">
-        <v>17</v>
+      <c r="B27" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>6518756</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5237372</t>
+          <t>6559301</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5224684</t>
+          <t>4884696</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6807271</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>6761859</t>
-        </is>
-      </c>
+          <t>4865922</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n">
-        <v>18</v>
+      <c r="B28" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>6537584</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5242517</t>
+          <t>6578132</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5229842</t>
+          <t>4898775</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6788830</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>6743823</t>
-        </is>
-      </c>
+          <t>4880001</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>二单元</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>3</v>
+      <c r="B29" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>6556415</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4369290</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>5244939</t>
-        </is>
-      </c>
+          <t>6596960</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4912857</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4894083</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="n">
-        <v>4</v>
+      <c r="B30" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>6556415</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4405874</t>
+          <t>6596960</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4467512</t>
+          <t>4912857</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5308943</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>5285771</t>
-        </is>
-      </c>
+          <t>4894083</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="n">
-        <v>6</v>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>松风明月花园6栋--</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4807700</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4449775</t>
+          <t>4154921</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4511384</t>
+          <t>4199171</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5357994</t>
+          <t>4232711</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5334771</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>4181471</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>4830397</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n">
-        <v>7</v>
+      <c r="B32" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4822526</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4457090</t>
+          <t>4168196</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4518696</t>
+          <t>4212446</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5366168</t>
+          <t>4245986</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>5342936</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>4194746</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>4845232</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n">
-        <v>9</v>
+      <c r="B33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4822526</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4471725</t>
+          <t>4168196</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4533320</t>
+          <t>4212446</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>5382520</t>
+          <t>4245986</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>5359270</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>4194746</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>4845232</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n">
-        <v>10</v>
+      <c r="B34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4837352</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4479042</t>
+          <t>4181471</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4540632</t>
+          <t>4225721</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>5390695</t>
+          <t>4259261</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5367435</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>4208021</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>4860067</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="n"/>
-      <c r="C35" s="1" t="n">
-        <v>12</v>
+      <c r="B35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4852178</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4490017</t>
+          <t>4194746</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4551600</t>
+          <t>4238996</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5402958</t>
+          <t>4272536</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5379686</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t>4221296</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>4874902</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="n"/>
-      <c r="C36" s="1" t="n">
-        <v>13</v>
+      <c r="B36" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4867004</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4495505</t>
+          <t>4208021</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4557084</t>
+          <t>4252271</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5409089</t>
+          <t>4285811</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>5385811</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>4234571</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>4889737</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="n">
-        <v>15</v>
+      <c r="B37" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4881830</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4506480</t>
+          <t>4221296</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4568052</t>
+          <t>4265546</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>5421352</t>
+          <t>4299086</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>5398059</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>4247846</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>4904572</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="n">
-        <v>16</v>
+      <c r="B38" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4896656</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4511966</t>
+          <t>4234571</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4573536</t>
+          <t>4278821</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5427482</t>
+          <t>4312361</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5404184</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>4261121</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>4919407</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="n"/>
-      <c r="C39" s="1" t="n">
-        <v>18</v>
+      <c r="B39" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4911482</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4521112</t>
+          <t>4247846</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4582676</t>
+          <t>4292096</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5437701</t>
+          <t>4325636</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>5414392</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>4274396</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>4934242</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="n">
-        <v>19</v>
+      <c r="B40" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4926308</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4525685</t>
+          <t>4261121</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4587246</t>
+          <t>4305371</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5442812</t>
+          <t>4338911</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5419496</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>4287671</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>4949077</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n">
-        <v>21</v>
+      <c r="B41" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4941134</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4534831</t>
+          <t>4274396</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4596386</t>
+          <t>4318646</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>5453031</t>
+          <t>4352186</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>5429704</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>4300946</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>4963912</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n">
-        <v>22</v>
+      <c r="B42" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4941134</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4539404</t>
+          <t>4274396</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4600956</t>
+          <t>4318646</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5458139</t>
+          <t>4352186</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>5434808</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>4300946</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>4963912</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n">
-        <v>24</v>
+      <c r="B43" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4955960</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4548550</t>
+          <t>4287671</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4610096</t>
+          <t>4331921</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>5468358</t>
+          <t>4365461</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>5445016</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+          <t>4314221</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>4978747</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n">
-        <v>25</v>
+      <c r="B44" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4970786</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4553123</t>
+          <t>4300946</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4614666</t>
+          <t>4345196</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>5473469</t>
+          <t>4378736</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>5450120</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t>4327496</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>4993582</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="n">
-        <v>27</v>
+      <c r="B45" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>4985612</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4562269</t>
+          <t>4314221</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4623806</t>
+          <t>4358471</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>5483688</t>
+          <t>4392011</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>5460328</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
+          <t>4340771</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>5008417</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="n"/>
-      <c r="C46" s="1" t="n">
-        <v>28</v>
+      <c r="B46" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5000438</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4566842</t>
+          <t>4327496</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4628376</t>
+          <t>4371746</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>5468358</t>
+          <t>4405286</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>5445016</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
+          <t>4354046</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>5023252</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="n">
-        <v>29</v>
+      <c r="B47" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>5015264</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4869741</t>
+          <t>4340771</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4935269</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+          <t>4385021</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4418561</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>4367321</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>5038087</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>四单元</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="n">
-        <v>3</v>
+      <c r="B48" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5030090</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4399852</t>
+          <t>4354046</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4705847</t>
+          <t>4398296</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4133310</t>
+          <t>4431836</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>4748010</t>
+          <t>4380596</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>4594619</t>
+          <t>5052922</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="n"/>
-      <c r="C49" s="1" t="n">
-        <v>4</v>
+      <c r="B49" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>5044916</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4436628</t>
+          <t>4367321</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4744231</t>
+          <t>4411571</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4165290</t>
+          <t>4445111</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>4786378</t>
+          <t>4393871</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>4631607</t>
+          <t>5067757</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="n"/>
-      <c r="C50" s="1" t="n">
-        <v>6</v>
+      <c r="B50" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>5059742</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4480759</t>
+          <t>4380596</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4790293</t>
+          <t>4424846</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4203666</t>
+          <t>4458386</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>4832418</t>
+          <t>4407146</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>4675994</t>
+          <t>5082592</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n"/>
-      <c r="C51" s="1" t="n">
-        <v>7</v>
+      <c r="B51" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>5074568</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4488113</t>
+          <t>4393871</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4797970</t>
+          <t>4438121</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4210062</t>
+          <t>4471661</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>4840093</t>
+          <t>4420421</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>4683391</t>
+          <t>5097427</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="n"/>
-      <c r="C52" s="1" t="n">
-        <v>9</v>
+      <c r="B52" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>5074568</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4502824</t>
+          <t>4393871</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4813322</t>
+          <t>4438121</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>4222854</t>
+          <t>4471661</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>4855439</t>
+          <t>4420421</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>4698187</t>
+          <t>5097427</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="n">
-        <v>10</v>
+      <c r="B53" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>5089394</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4510180</t>
+          <t>4407146</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4820999</t>
+          <t>4451396</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4229250</t>
+          <t>4484936</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>4863114</t>
+          <t>4433696</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>4705583</t>
+          <t>5112262</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="n">
-        <v>12</v>
+      <c r="B54" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>5104220</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4521212</t>
+          <t>4420421</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4832514</t>
+          <t>4464671</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4238844</t>
+          <t>4498211</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4874623</t>
+          <t>4446971</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>4716681</t>
+          <t>5127097</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="n">
-        <v>13</v>
+      <c r="B55" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>5119046</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4526729</t>
+          <t>4433696</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4838273</t>
+          <t>4477946</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>4243641</t>
+          <t>4511486</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>4880378</t>
+          <t>4460246</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>4722229</t>
+          <t>5141932</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="n">
-        <v>15</v>
+      <c r="B56" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>5133872</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4537762</t>
+          <t>4446971</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4849787</t>
+          <t>4491221</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4253235</t>
+          <t>4524761</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4891890</t>
+          <t>4473521</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4733324</t>
+          <t>5156767</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="n"/>
-      <c r="C57" s="1" t="n">
-        <v>16</v>
+      <c r="B57" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>5148698</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4543277</t>
+          <t>4460246</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4855546</t>
+          <t>4504496</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>4258032</t>
+          <t>4538036</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>4897645</t>
+          <t>4486796</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>4738873</t>
+          <t>5171602</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
-      <c r="B58" s="1" t="n"/>
-      <c r="C58" s="1" t="n">
-        <v>18</v>
+      <c r="B58" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>5163524</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4552471</t>
+          <t>4473521</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4865142</t>
+          <t>4517771</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4266027</t>
+          <t>4551311</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>4907237</t>
+          <t>4500071</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>4748120</t>
+          <t>5186437</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
-      <c r="B59" s="1" t="n"/>
-      <c r="C59" s="1" t="n">
-        <v>19</v>
+      <c r="B59" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>5178350</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4538680</t>
+          <t>4486796</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4850748</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
+          <t>4531046</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4564586</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>4892849</t>
+          <t>4513346</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>4734250</t>
+          <t>5201272</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>四季名苑2栋</t>
-        </is>
-      </c>
+      <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" s="1" t="n">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>5178350</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>7243646</t>
+          <t>4486796</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6271270</t>
+          <t>4531046</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>6875802</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+          <t>4564586</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>4513346</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>5201272</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="n"/>
-      <c r="C61" s="1" t="n">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>松风明月花园7栋--</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>6083748</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>7285849</t>
+          <t>6083748</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6319086</t>
+          <t>4635307</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>6928622</t>
+          <t>4619614</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2208,23 +2420,27 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
-      <c r="B62" s="1" t="n"/>
-      <c r="C62" s="1" t="n">
+      <c r="B62" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>6102600</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>7328131</t>
+          <t>6102600</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>6366902</t>
+          <t>4649401</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>6981442</t>
+          <t>4633708</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2232,23 +2448,27 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
-      <c r="B63" s="1" t="n"/>
-      <c r="C63" s="1" t="n">
+      <c r="B63" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>6102600</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>7370413</t>
+          <t>6102600</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6414718</t>
+          <t>4649401</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>7034262</t>
+          <t>4633708</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2256,23 +2476,27 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
-      <c r="B64" s="1" t="n"/>
-      <c r="C64" s="1" t="n">
+      <c r="B64" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>6121449</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>7381687</t>
+          <t>6121449</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>6424280</t>
+          <t>4663498</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>7044826</t>
+          <t>4647805</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2280,23 +2504,27 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="n"/>
-      <c r="C65" s="1" t="n">
+      <c r="B65" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>6140301</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>7392962</t>
+          <t>6140301</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>6433843</t>
+          <t>4677592</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>7055390</t>
+          <t>4661899</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2304,23 +2532,27 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
-      <c r="B66" s="1" t="n"/>
-      <c r="C66" s="1" t="n">
-        <v>17</v>
+      <c r="B66" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>6159150</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>7505714</t>
+          <t>6159150</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>6529475</t>
+          <t>4691689</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>7161030</t>
+          <t>4675996</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2328,23 +2560,27 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="n"/>
-      <c r="C67" s="1" t="n">
-        <v>18</v>
+      <c r="B67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>6178002</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>7516991</t>
+          <t>6178002</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>6539040</t>
+          <t>4705783</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>7171594</t>
+          <t>4690090</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2352,23 +2588,27 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="n"/>
-      <c r="C68" s="1" t="n">
-        <v>19</v>
+      <c r="B68" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>6196851</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>7528266</t>
+          <t>6196851</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>6548603</t>
+          <t>4719880</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>7182158</t>
+          <t>4704187</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2376,23 +2616,27 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="n"/>
-      <c r="C69" s="1" t="n">
-        <v>20</v>
+      <c r="B69" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>6215703</t>
+        </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>7539541</t>
+          <t>6215703</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>6558166</t>
+          <t>4733974</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>7192722</t>
+          <t>4718281</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2400,23 +2644,27 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
-      <c r="B70" s="1" t="n"/>
-      <c r="C70" s="1" t="n">
-        <v>21</v>
+      <c r="B70" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>6234552</t>
+        </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>7550815</t>
+          <t>6234552</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>6567728</t>
+          <t>4748071</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>7203286</t>
+          <t>4732378</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2424,23 +2672,27 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="n"/>
-      <c r="C71" s="1" t="n">
-        <v>22</v>
+      <c r="B71" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>6253404</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>7562090</t>
+          <t>6253404</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>6577291</t>
+          <t>4762165</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>7213850</t>
+          <t>4746472</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2448,23 +2700,27 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
-      <c r="B72" s="1" t="n"/>
-      <c r="C72" s="1" t="n">
-        <v>23</v>
+      <c r="B72" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>6253404</t>
+        </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>7611419</t>
+          <t>6253404</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>6619130</t>
+          <t>4762165</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>7260068</t>
+          <t>4746472</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2472,23 +2728,27 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n"/>
-      <c r="C73" s="1" t="n">
-        <v>24</v>
+      <c r="B73" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>6272253</t>
+        </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>7660748</t>
+          <t>6272253</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>6660969</t>
+          <t>4776262</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>7306285</t>
+          <t>4760569</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2496,23 +2756,27 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
-      <c r="B74" s="1" t="n"/>
-      <c r="C74" s="1" t="n">
-        <v>25</v>
+      <c r="B74" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>6291105</t>
+        </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7710077</t>
+          <t>6291105</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>6702808</t>
+          <t>4790356</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>7352503</t>
+          <t>4774663</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2520,23 +2784,27 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
-      <c r="B75" s="1" t="n"/>
-      <c r="C75" s="1" t="n">
-        <v>26</v>
+      <c r="B75" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>6309954</t>
+        </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>7759406</t>
+          <t>6309954</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>6744647</t>
+          <t>4804453</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>7398720</t>
+          <t>4788760</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2544,23 +2812,27 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
-      <c r="B76" s="1" t="n"/>
-      <c r="C76" s="1" t="n">
-        <v>27</v>
+      <c r="B76" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>6328806</t>
+        </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7808735</t>
+          <t>6328806</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>6786486</t>
+          <t>4818547</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>7444938</t>
+          <t>4802854</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2568,23 +2840,27 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
-      <c r="B77" s="1" t="n"/>
-      <c r="C77" s="1" t="n">
-        <v>28</v>
+      <c r="B77" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>6347655</t>
+        </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7858064</t>
+          <t>6347655</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>6828325</t>
+          <t>4832644</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>7491155</t>
+          <t>4816951</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2592,29 +2868,373 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n"/>
-      <c r="B78" s="1" t="n"/>
-      <c r="C78" s="1" t="n">
-        <v>29</v>
+      <c r="B78" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>6366507</t>
+        </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7879205</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+          <t>6366507</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>4846738</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4831045</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
     </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>6385356</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6385356</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>4860835</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4845142</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>6404208</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6404208</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>4874929</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4859236</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>6423057</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6423057</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>4889026</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4873333</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>6423057</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6423057</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>4889026</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4873333</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>6441909</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6441909</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>4903120</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4887427</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>6460758</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6460758</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>4917217</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4901524</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>6479610</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6479610</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>4931311</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4915618</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>6498459</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6498459</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>4945408</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4929715</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>6517311</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6517311</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>4959502</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4943809</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>6536160</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>6536160</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>4973599</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4957906</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>6555012</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6555012</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>4987693</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4972000</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>6555012</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>6555012</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>4987693</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4972000</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A59"/>
-    <mergeCell ref="A60:A78"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B28"/>
-    <mergeCell ref="B29:B47"/>
-    <mergeCell ref="B48:B59"/>
-    <mergeCell ref="B60:B78"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A30"/>
+    <mergeCell ref="A31:A60"/>
+    <mergeCell ref="A61:A90"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -2626,7 +3246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2642,1573 +3262,1945 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>单元</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>楼层</t>
         </is>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>四季名苑1栋</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>一单元</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
+          <t>松风明月花园3栋1单元</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="C2" t="n">
+        <v>48629.87</v>
+      </c>
       <c r="D2" t="n">
-        <v>48403.68</v>
+        <v>48952.86</v>
       </c>
       <c r="E2" t="n">
-        <v>48240.69</v>
+        <v>48736.82</v>
       </c>
       <c r="F2" t="n">
-        <v>51113.69</v>
-      </c>
-      <c r="G2" t="n">
-        <v>51755.68</v>
-      </c>
+        <v>48536.82</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n">
-        <v>5</v>
+      <c r="B3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>48779.86</v>
       </c>
       <c r="D3" t="n">
-        <v>49153.68</v>
+        <v>49102.87</v>
       </c>
       <c r="E3" t="n">
-        <v>48990.69</v>
+        <v>48886.81</v>
       </c>
       <c r="F3" t="n">
-        <v>51863.69</v>
-      </c>
-      <c r="G3" t="n">
-        <v>52505.68</v>
-      </c>
+        <v>48686.81</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n">
-        <v>6</v>
+      <c r="B4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>48779.86</v>
       </c>
       <c r="D4" t="n">
-        <v>49283.68</v>
+        <v>49102.87</v>
       </c>
       <c r="E4" t="n">
-        <v>49120.69</v>
+        <v>48886.81</v>
       </c>
       <c r="F4" t="n">
-        <v>51993.69</v>
-      </c>
-      <c r="G4" t="n">
-        <v>52635.69</v>
-      </c>
+        <v>48686.81</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n">
-        <v>8</v>
+      <c r="B5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>48929.87</v>
       </c>
       <c r="D5" t="n">
-        <v>49443.69</v>
+        <v>49252.86</v>
       </c>
       <c r="E5" t="n">
-        <v>49280.68</v>
+        <v>49036.82</v>
       </c>
       <c r="F5" t="n">
-        <v>52153.68</v>
-      </c>
-      <c r="G5" t="n">
-        <v>52795.69</v>
-      </c>
+        <v>48836.82</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n">
-        <v>9</v>
+      <c r="B6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>49079.86</v>
       </c>
       <c r="D6" t="n">
-        <v>49523.69</v>
+        <v>49402.87</v>
       </c>
       <c r="E6" t="n">
-        <v>49360.68</v>
+        <v>49186.81</v>
       </c>
       <c r="F6" t="n">
-        <v>52233.68</v>
-      </c>
-      <c r="G6" t="n">
-        <v>52875.69</v>
-      </c>
+        <v>48986.81</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n">
-        <v>11</v>
+      <c r="B7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>49229.87</v>
       </c>
       <c r="D7" t="n">
-        <v>49663.69</v>
+        <v>49552.86</v>
       </c>
       <c r="E7" t="n">
-        <v>49500.69</v>
+        <v>49336.82</v>
       </c>
       <c r="F7" t="n">
-        <v>52373.69</v>
-      </c>
-      <c r="G7" t="n">
-        <v>53015.68</v>
-      </c>
+        <v>49136.82</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n">
-        <v>12</v>
+      <c r="B8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>49379.86</v>
       </c>
       <c r="D8" t="n">
-        <v>49723.69</v>
+        <v>49702.87</v>
       </c>
       <c r="E8" t="n">
-        <v>49560.68</v>
+        <v>49486.81</v>
       </c>
       <c r="F8" t="n">
-        <v>52433.68</v>
-      </c>
-      <c r="G8" t="n">
-        <v>53075.69</v>
-      </c>
+        <v>49286.81</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n">
-        <v>14</v>
+      <c r="B9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>49529.87</v>
       </c>
       <c r="D9" t="n">
-        <v>49843.69</v>
+        <v>49852.86</v>
       </c>
       <c r="E9" t="n">
-        <v>49680.68</v>
+        <v>49636.82</v>
       </c>
       <c r="F9" t="n">
-        <v>52553.68</v>
-      </c>
-      <c r="G9" t="n">
-        <v>53195.69</v>
-      </c>
+        <v>49436.82</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n">
-        <v>15</v>
+      <c r="B10" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>49679.86</v>
       </c>
       <c r="D10" t="n">
-        <v>49903.68</v>
+        <v>50002.87</v>
       </c>
       <c r="E10" t="n">
-        <v>49740.69</v>
+        <v>49786.81</v>
       </c>
       <c r="F10" t="n">
-        <v>52613.69</v>
-      </c>
-      <c r="G10" t="n">
-        <v>53255.68</v>
-      </c>
+        <v>49586.81</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n">
-        <v>17</v>
+      <c r="B11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>49829.87</v>
       </c>
       <c r="D11" t="n">
-        <v>50013.69</v>
+        <v>50152.86</v>
       </c>
       <c r="E11" t="n">
-        <v>49850.68</v>
+        <v>49936.82</v>
       </c>
       <c r="F11" t="n">
-        <v>52723.68</v>
-      </c>
-      <c r="G11" t="n">
-        <v>53365.68</v>
-      </c>
+        <v>49736.82</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n">
-        <v>18</v>
+      <c r="B12" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C12" t="n">
+        <v>49979.86</v>
       </c>
       <c r="D12" t="n">
-        <v>50063.69</v>
+        <v>50302.87</v>
       </c>
       <c r="E12" t="n">
-        <v>49900.69</v>
+        <v>50086.81</v>
       </c>
       <c r="F12" t="n">
-        <v>52773.69</v>
-      </c>
-      <c r="G12" t="n">
-        <v>53415.68</v>
-      </c>
+        <v>49886.81</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n">
-        <v>20</v>
+      <c r="B13" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C13" t="n">
+        <v>49979.86</v>
       </c>
       <c r="D13" t="n">
-        <v>50163.69</v>
+        <v>50302.87</v>
       </c>
       <c r="E13" t="n">
-        <v>50000.69</v>
+        <v>50086.81</v>
       </c>
       <c r="F13" t="n">
-        <v>52873.69</v>
-      </c>
-      <c r="G13" t="n">
-        <v>53515.68</v>
-      </c>
+        <v>49886.81</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n">
-        <v>21</v>
+      <c r="B14" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50129.87</v>
       </c>
       <c r="D14" t="n">
-        <v>50213.69</v>
+        <v>50452.86</v>
       </c>
       <c r="E14" t="n">
-        <v>50050.68</v>
+        <v>50236.82</v>
       </c>
       <c r="F14" t="n">
-        <v>52923.68</v>
-      </c>
-      <c r="G14" t="n">
-        <v>53565.68</v>
-      </c>
+        <v>50036.82</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n">
-        <v>23</v>
+      <c r="B15" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50279.86</v>
       </c>
       <c r="D15" t="n">
-        <v>50313.69</v>
+        <v>50602.87</v>
       </c>
       <c r="E15" t="n">
-        <v>50150.68</v>
+        <v>50386.81</v>
       </c>
       <c r="F15" t="n">
-        <v>53023.68</v>
-      </c>
-      <c r="G15" t="n">
-        <v>53665.68</v>
-      </c>
+        <v>50186.81</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n">
-        <v>24</v>
+      <c r="B16" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="n">
+        <v>50429.87</v>
       </c>
       <c r="D16" t="n">
-        <v>50363.69</v>
+        <v>50752.86</v>
       </c>
       <c r="E16" t="n">
-        <v>50200.69</v>
+        <v>50536.82</v>
       </c>
       <c r="F16" t="n">
-        <v>53073.69</v>
-      </c>
-      <c r="G16" t="n">
-        <v>53715.68</v>
-      </c>
+        <v>50336.82</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n">
-        <v>26</v>
+      <c r="B17" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50579.86</v>
       </c>
       <c r="D17" t="n">
-        <v>50463.69</v>
+        <v>50902.87</v>
       </c>
       <c r="E17" t="n">
-        <v>50300.69</v>
+        <v>50686.81</v>
       </c>
       <c r="F17" t="n">
-        <v>53173.69</v>
-      </c>
-      <c r="G17" t="n">
-        <v>53815.68</v>
-      </c>
+        <v>50486.81</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>三单元</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="B18" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>50729.87</v>
+      </c>
+      <c r="D18" t="n">
+        <v>51052.86</v>
+      </c>
       <c r="E18" t="n">
-        <v>49021.69</v>
+        <v>50836.82</v>
       </c>
       <c r="F18" t="n">
-        <v>53760.69</v>
+        <v>50636.82</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n">
-        <v>4</v>
+      <c r="B19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>50879.86</v>
       </c>
       <c r="D19" t="n">
-        <v>49687.69</v>
+        <v>51202.87</v>
       </c>
       <c r="E19" t="n">
-        <v>49421.69</v>
+        <v>50986.81</v>
       </c>
       <c r="F19" t="n">
-        <v>54160.69</v>
-      </c>
-      <c r="G19" t="n">
-        <v>55021.69</v>
-      </c>
+        <v>50786.81</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n">
-        <v>7</v>
+      <c r="B20" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C20" t="n">
+        <v>51029.87</v>
       </c>
       <c r="D20" t="n">
-        <v>50247.69</v>
+        <v>51352.86</v>
       </c>
       <c r="E20" t="n">
-        <v>49981.68</v>
+        <v>51136.82</v>
       </c>
       <c r="F20" t="n">
-        <v>54720.68</v>
-      </c>
-      <c r="G20" t="n">
-        <v>55581.69</v>
-      </c>
+        <v>50936.82</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n">
-        <v>8</v>
+      <c r="B21" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C21" t="n">
+        <v>51179.86</v>
       </c>
       <c r="D21" t="n">
-        <v>50327.69</v>
+        <v>51502.87</v>
       </c>
       <c r="E21" t="n">
-        <v>50061.68</v>
+        <v>51286.81</v>
       </c>
       <c r="F21" t="n">
-        <v>54800.68</v>
-      </c>
-      <c r="G21" t="n">
-        <v>55661.69</v>
-      </c>
+        <v>51086.81</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n">
-        <v>10</v>
+      <c r="B22" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C22" t="n">
+        <v>51329.87</v>
       </c>
       <c r="D22" t="n">
-        <v>50487.69</v>
+        <v>51652.86</v>
       </c>
       <c r="E22" t="n">
-        <v>50221.69</v>
+        <v>51436.82</v>
       </c>
       <c r="F22" t="n">
-        <v>54960.69</v>
-      </c>
-      <c r="G22" t="n">
-        <v>55821.69</v>
-      </c>
+        <v>51236.82</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n">
-        <v>11</v>
+      <c r="B23" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C23" t="n">
+        <v>51329.87</v>
       </c>
       <c r="D23" t="n">
-        <v>50547.69</v>
+        <v>51652.86</v>
       </c>
       <c r="E23" t="n">
-        <v>50281.68</v>
+        <v>51436.82</v>
       </c>
       <c r="F23" t="n">
-        <v>55020.68</v>
-      </c>
-      <c r="G23" t="n">
-        <v>55881.69</v>
-      </c>
+        <v>51236.82</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n">
-        <v>13</v>
+      <c r="B24" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>51479.86</v>
       </c>
       <c r="D24" t="n">
-        <v>50667.69</v>
+        <v>51802.87</v>
       </c>
       <c r="E24" t="n">
-        <v>50401.69</v>
+        <v>51586.81</v>
       </c>
       <c r="F24" t="n">
-        <v>55140.69</v>
-      </c>
-      <c r="G24" t="n">
-        <v>56001.69</v>
-      </c>
+        <v>51386.81</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n">
-        <v>14</v>
+      <c r="B25" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C25" t="n">
+        <v>51629.87</v>
       </c>
       <c r="D25" t="n">
-        <v>50727.69</v>
+        <v>51952.86</v>
       </c>
       <c r="E25" t="n">
-        <v>50461.68</v>
+        <v>51736.82</v>
       </c>
       <c r="F25" t="n">
-        <v>55200.68</v>
-      </c>
-      <c r="G25" t="n">
-        <v>56061.69</v>
-      </c>
+        <v>51536.82</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="n">
-        <v>16</v>
+      <c r="B26" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C26" t="n">
+        <v>51779.86</v>
       </c>
       <c r="D26" t="n">
-        <v>50847.69</v>
+        <v>52102.87</v>
       </c>
       <c r="E26" t="n">
-        <v>50581.68</v>
+        <v>51886.81</v>
       </c>
       <c r="F26" t="n">
-        <v>55320.68</v>
-      </c>
-      <c r="G26" t="n">
-        <v>56181.69</v>
-      </c>
+        <v>51686.81</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="n">
-        <v>17</v>
+      <c r="B27" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C27" t="n">
+        <v>51929.87</v>
       </c>
       <c r="D27" t="n">
-        <v>50897.69</v>
+        <v>52252.86</v>
       </c>
       <c r="E27" t="n">
-        <v>50631.69</v>
+        <v>52036.82</v>
       </c>
       <c r="F27" t="n">
-        <v>55370.68</v>
-      </c>
-      <c r="G27" t="n">
-        <v>56231.68</v>
-      </c>
+        <v>51836.82</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n">
-        <v>18</v>
+      <c r="B28" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C28" t="n">
+        <v>52079.86</v>
       </c>
       <c r="D28" t="n">
-        <v>50947.69</v>
+        <v>52402.87</v>
       </c>
       <c r="E28" t="n">
-        <v>50681.68</v>
+        <v>52186.81</v>
       </c>
       <c r="F28" t="n">
-        <v>55220.68</v>
-      </c>
-      <c r="G28" t="n">
-        <v>56081.69</v>
-      </c>
+        <v>51986.81</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>二单元</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>3</v>
+      <c r="B29" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C29" t="n">
+        <v>52229.87</v>
       </c>
       <c r="D29" t="n">
-        <v>47772.69</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="n">
-        <v>51380.68</v>
-      </c>
+        <v>52552.86</v>
+      </c>
+      <c r="E29" t="n">
+        <v>52336.82</v>
+      </c>
+      <c r="F29" t="n">
+        <v>52136.82</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="n">
-        <v>4</v>
+      <c r="B30" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="C30" t="n">
+        <v>52229.87</v>
       </c>
       <c r="D30" t="n">
-        <v>48172.69</v>
+        <v>52552.86</v>
       </c>
       <c r="E30" t="n">
-        <v>48878.69</v>
+        <v>52336.82</v>
       </c>
       <c r="F30" t="n">
-        <v>51951.69</v>
-      </c>
-      <c r="G30" t="n">
-        <v>51780.68</v>
-      </c>
+        <v>52136.82</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="n">
-        <v>6</v>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>松风明月花园6栋--</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>48641.24</v>
       </c>
       <c r="D31" t="n">
-        <v>48652.69</v>
+        <v>46948.26</v>
       </c>
       <c r="E31" t="n">
-        <v>49358.69</v>
+        <v>47448.26</v>
       </c>
       <c r="F31" t="n">
-        <v>52431.69</v>
+        <v>47827.25</v>
       </c>
       <c r="G31" t="n">
-        <v>52260.69</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
+        <v>47248.26</v>
+      </c>
+      <c r="H31" t="n">
+        <v>48841.23</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n">
-        <v>7</v>
+      <c r="B32" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>48791.24</v>
       </c>
       <c r="D32" t="n">
-        <v>48732.68</v>
+        <v>47098.26</v>
       </c>
       <c r="E32" t="n">
-        <v>49438.69</v>
+        <v>47598.26</v>
       </c>
       <c r="F32" t="n">
-        <v>52511.68</v>
+        <v>47977.25</v>
       </c>
       <c r="G32" t="n">
-        <v>52340.68</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
+        <v>47398.26</v>
+      </c>
+      <c r="H32" t="n">
+        <v>48991.23</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n">
-        <v>9</v>
+      <c r="B33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>48791.24</v>
       </c>
       <c r="D33" t="n">
-        <v>48892.69</v>
+        <v>47098.26</v>
       </c>
       <c r="E33" t="n">
-        <v>49598.69</v>
+        <v>47598.26</v>
       </c>
       <c r="F33" t="n">
-        <v>52671.69</v>
+        <v>47977.25</v>
       </c>
       <c r="G33" t="n">
-        <v>52500.69</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
+        <v>47398.26</v>
+      </c>
+      <c r="H33" t="n">
+        <v>48991.23</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n">
-        <v>10</v>
+      <c r="B34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>48941.24</v>
       </c>
       <c r="D34" t="n">
-        <v>48972.69</v>
+        <v>47248.26</v>
       </c>
       <c r="E34" t="n">
-        <v>49678.69</v>
+        <v>47748.26</v>
       </c>
       <c r="F34" t="n">
-        <v>52751.69</v>
+        <v>48127.25</v>
       </c>
       <c r="G34" t="n">
-        <v>52580.68</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
+        <v>47548.26</v>
+      </c>
+      <c r="H34" t="n">
+        <v>49141.23</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="n"/>
-      <c r="C35" s="1" t="n">
-        <v>12</v>
+      <c r="B35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>49091.24</v>
       </c>
       <c r="D35" t="n">
-        <v>49092.69</v>
+        <v>47398.26</v>
       </c>
       <c r="E35" t="n">
-        <v>49798.69</v>
+        <v>47898.26</v>
       </c>
       <c r="F35" t="n">
-        <v>52871.69</v>
+        <v>48277.25</v>
       </c>
       <c r="G35" t="n">
-        <v>52700.69</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
+        <v>47698.26</v>
+      </c>
+      <c r="H35" t="n">
+        <v>49291.23</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="n"/>
-      <c r="C36" s="1" t="n">
-        <v>13</v>
+      <c r="B36" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>49241.24</v>
       </c>
       <c r="D36" t="n">
-        <v>49152.69</v>
+        <v>47548.26</v>
       </c>
       <c r="E36" t="n">
-        <v>49858.69</v>
+        <v>48048.26</v>
       </c>
       <c r="F36" t="n">
-        <v>52931.69</v>
+        <v>48427.25</v>
       </c>
       <c r="G36" t="n">
-        <v>52760.69</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
+        <v>47848.26</v>
+      </c>
+      <c r="H36" t="n">
+        <v>49441.23</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="n">
-        <v>15</v>
+      <c r="B37" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>49391.24</v>
       </c>
       <c r="D37" t="n">
-        <v>49272.69</v>
+        <v>47698.26</v>
       </c>
       <c r="E37" t="n">
-        <v>49978.69</v>
+        <v>48198.26</v>
       </c>
       <c r="F37" t="n">
-        <v>53051.69</v>
+        <v>48577.25</v>
       </c>
       <c r="G37" t="n">
-        <v>52880.68</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
+        <v>47998.26</v>
+      </c>
+      <c r="H37" t="n">
+        <v>49591.23</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="n">
-        <v>16</v>
+      <c r="B38" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="n">
+        <v>49541.24</v>
       </c>
       <c r="D38" t="n">
-        <v>49332.68</v>
+        <v>47848.26</v>
       </c>
       <c r="E38" t="n">
-        <v>50038.69</v>
+        <v>48348.26</v>
       </c>
       <c r="F38" t="n">
-        <v>53111.68</v>
+        <v>48727.25</v>
       </c>
       <c r="G38" t="n">
-        <v>52940.68</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
+        <v>48148.26</v>
+      </c>
+      <c r="H38" t="n">
+        <v>49741.23</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="n"/>
-      <c r="C39" s="1" t="n">
-        <v>18</v>
+      <c r="B39" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C39" t="n">
+        <v>49691.24</v>
       </c>
       <c r="D39" t="n">
-        <v>49432.68</v>
+        <v>47998.26</v>
       </c>
       <c r="E39" t="n">
-        <v>50138.69</v>
+        <v>48498.26</v>
       </c>
       <c r="F39" t="n">
-        <v>53211.68</v>
+        <v>48877.25</v>
       </c>
       <c r="G39" t="n">
-        <v>53040.68</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
+        <v>48298.26</v>
+      </c>
+      <c r="H39" t="n">
+        <v>49891.23</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="n">
-        <v>19</v>
+      <c r="B40" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C40" t="n">
+        <v>49841.24</v>
       </c>
       <c r="D40" t="n">
-        <v>49482.68</v>
+        <v>48148.26</v>
       </c>
       <c r="E40" t="n">
-        <v>50188.69</v>
+        <v>48648.26</v>
       </c>
       <c r="F40" t="n">
-        <v>53261.69</v>
+        <v>49027.25</v>
       </c>
       <c r="G40" t="n">
-        <v>53090.68</v>
-      </c>
-      <c r="H40" t="inlineStr"/>
+        <v>48448.26</v>
+      </c>
+      <c r="H40" t="n">
+        <v>50041.23</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n">
-        <v>21</v>
+      <c r="B41" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C41" t="n">
+        <v>49991.24</v>
       </c>
       <c r="D41" t="n">
-        <v>49582.68</v>
+        <v>48298.26</v>
       </c>
       <c r="E41" t="n">
-        <v>50288.69</v>
+        <v>48798.26</v>
       </c>
       <c r="F41" t="n">
-        <v>53361.69</v>
+        <v>49177.25</v>
       </c>
       <c r="G41" t="n">
-        <v>53190.68</v>
-      </c>
-      <c r="H41" t="inlineStr"/>
+        <v>48598.26</v>
+      </c>
+      <c r="H41" t="n">
+        <v>50191.23</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n">
-        <v>22</v>
+      <c r="B42" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C42" t="n">
+        <v>49991.24</v>
       </c>
       <c r="D42" t="n">
-        <v>49632.68</v>
+        <v>48298.26</v>
       </c>
       <c r="E42" t="n">
-        <v>50338.69</v>
+        <v>48798.26</v>
       </c>
       <c r="F42" t="n">
-        <v>53411.68</v>
+        <v>49177.25</v>
       </c>
       <c r="G42" t="n">
-        <v>53240.68</v>
-      </c>
-      <c r="H42" t="inlineStr"/>
+        <v>48598.26</v>
+      </c>
+      <c r="H42" t="n">
+        <v>50191.23</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n">
-        <v>24</v>
+      <c r="B43" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C43" t="n">
+        <v>50141.24</v>
       </c>
       <c r="D43" t="n">
-        <v>49732.68</v>
+        <v>48448.26</v>
       </c>
       <c r="E43" t="n">
-        <v>50438.69</v>
+        <v>48948.26</v>
       </c>
       <c r="F43" t="n">
-        <v>53511.68</v>
+        <v>49327.25</v>
       </c>
       <c r="G43" t="n">
-        <v>53340.68</v>
-      </c>
-      <c r="H43" t="inlineStr"/>
+        <v>48748.26</v>
+      </c>
+      <c r="H43" t="n">
+        <v>50341.23</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n">
-        <v>25</v>
+      <c r="B44" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C44" t="n">
+        <v>50291.24</v>
       </c>
       <c r="D44" t="n">
-        <v>49782.68</v>
+        <v>48598.26</v>
       </c>
       <c r="E44" t="n">
-        <v>50488.69</v>
+        <v>49098.26</v>
       </c>
       <c r="F44" t="n">
-        <v>53561.69</v>
+        <v>49477.25</v>
       </c>
       <c r="G44" t="n">
-        <v>53390.68</v>
-      </c>
-      <c r="H44" t="inlineStr"/>
+        <v>48898.26</v>
+      </c>
+      <c r="H44" t="n">
+        <v>50491.23</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="n">
-        <v>27</v>
+      <c r="B45" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C45" t="n">
+        <v>50441.24</v>
       </c>
       <c r="D45" t="n">
-        <v>49882.68</v>
+        <v>48748.26</v>
       </c>
       <c r="E45" t="n">
-        <v>50588.69</v>
+        <v>49248.26</v>
       </c>
       <c r="F45" t="n">
-        <v>53661.69</v>
+        <v>49627.25</v>
       </c>
       <c r="G45" t="n">
-        <v>53490.68</v>
-      </c>
-      <c r="H45" t="inlineStr"/>
+        <v>49048.26</v>
+      </c>
+      <c r="H45" t="n">
+        <v>50641.23</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="n"/>
-      <c r="C46" s="1" t="n">
-        <v>28</v>
+      <c r="B46" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C46" t="n">
+        <v>50591.24</v>
       </c>
       <c r="D46" t="n">
-        <v>49932.68</v>
+        <v>48898.26</v>
       </c>
       <c r="E46" t="n">
-        <v>50638.69</v>
+        <v>49398.26</v>
       </c>
       <c r="F46" t="n">
-        <v>53511.68</v>
+        <v>49777.25</v>
       </c>
       <c r="G46" t="n">
-        <v>53340.68</v>
-      </c>
-      <c r="H46" t="inlineStr"/>
+        <v>49198.26</v>
+      </c>
+      <c r="H46" t="n">
+        <v>50791.23</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="n">
-        <v>29</v>
+      <c r="B47" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C47" t="n">
+        <v>50741.24</v>
       </c>
       <c r="D47" t="n">
-        <v>49782.68</v>
+        <v>49048.26</v>
       </c>
       <c r="E47" t="n">
-        <v>50488.69</v>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+        <v>49548.26</v>
+      </c>
+      <c r="F47" t="n">
+        <v>49927.25</v>
+      </c>
+      <c r="G47" t="n">
+        <v>49348.26</v>
+      </c>
+      <c r="H47" t="n">
+        <v>50941.23</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>四单元</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="n">
-        <v>3</v>
+      <c r="B48" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C48" t="n">
+        <v>50891.24</v>
       </c>
       <c r="D48" t="n">
-        <v>47855.69</v>
+        <v>49198.26</v>
       </c>
       <c r="E48" t="n">
-        <v>49039.68</v>
+        <v>49698.26</v>
       </c>
       <c r="F48" t="n">
-        <v>51698.69</v>
+        <v>50077.25</v>
       </c>
       <c r="G48" t="n">
-        <v>49499.69</v>
+        <v>49498.26</v>
       </c>
       <c r="H48" t="n">
-        <v>49687.68</v>
+        <v>51091.23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="n"/>
-      <c r="C49" s="1" t="n">
-        <v>4</v>
+      <c r="B49" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C49" t="n">
+        <v>51041.24</v>
       </c>
       <c r="D49" t="n">
-        <v>48255.69</v>
+        <v>49348.26</v>
       </c>
       <c r="E49" t="n">
-        <v>49439.68</v>
+        <v>49848.26</v>
       </c>
       <c r="F49" t="n">
-        <v>52098.69</v>
+        <v>50227.25</v>
       </c>
       <c r="G49" t="n">
-        <v>49899.69</v>
+        <v>49648.26</v>
       </c>
       <c r="H49" t="n">
-        <v>50087.68</v>
+        <v>51241.23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="n"/>
-      <c r="C50" s="1" t="n">
-        <v>6</v>
+      <c r="B50" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C50" t="n">
+        <v>51191.24</v>
       </c>
       <c r="D50" t="n">
-        <v>48735.69</v>
+        <v>49498.26</v>
       </c>
       <c r="E50" t="n">
-        <v>49919.69</v>
+        <v>49998.26</v>
       </c>
       <c r="F50" t="n">
-        <v>52578.69</v>
+        <v>50377.25</v>
       </c>
       <c r="G50" t="n">
-        <v>50379.68</v>
+        <v>49798.26</v>
       </c>
       <c r="H50" t="n">
-        <v>50567.69</v>
+        <v>51391.23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n"/>
-      <c r="C51" s="1" t="n">
-        <v>7</v>
+      <c r="B51" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C51" t="n">
+        <v>51341.24</v>
       </c>
       <c r="D51" t="n">
-        <v>48815.68</v>
+        <v>49648.26</v>
       </c>
       <c r="E51" t="n">
-        <v>49999.69</v>
+        <v>50148.26</v>
       </c>
       <c r="F51" t="n">
-        <v>52658.69</v>
+        <v>50527.25</v>
       </c>
       <c r="G51" t="n">
-        <v>50459.69</v>
+        <v>49948.26</v>
       </c>
       <c r="H51" t="n">
-        <v>50647.69</v>
+        <v>51541.23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="n"/>
-      <c r="C52" s="1" t="n">
-        <v>9</v>
+      <c r="B52" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C52" t="n">
+        <v>51341.24</v>
       </c>
       <c r="D52" t="n">
-        <v>48975.69</v>
+        <v>49648.26</v>
       </c>
       <c r="E52" t="n">
-        <v>50159.68</v>
+        <v>50148.26</v>
       </c>
       <c r="F52" t="n">
-        <v>52818.69</v>
+        <v>50527.25</v>
       </c>
       <c r="G52" t="n">
-        <v>50619.68</v>
+        <v>49948.26</v>
       </c>
       <c r="H52" t="n">
-        <v>50807.69</v>
+        <v>51541.23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="n">
-        <v>10</v>
+      <c r="B53" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51491.24</v>
       </c>
       <c r="D53" t="n">
-        <v>49055.69</v>
+        <v>49798.26</v>
       </c>
       <c r="E53" t="n">
-        <v>50239.68</v>
+        <v>50298.26</v>
       </c>
       <c r="F53" t="n">
-        <v>52898.69</v>
+        <v>50677.25</v>
       </c>
       <c r="G53" t="n">
-        <v>50699.69</v>
+        <v>50098.26</v>
       </c>
       <c r="H53" t="n">
-        <v>50887.68</v>
+        <v>51691.23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="n">
-        <v>12</v>
+      <c r="B54" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C54" t="n">
+        <v>51641.24</v>
       </c>
       <c r="D54" t="n">
-        <v>49175.69</v>
+        <v>49948.26</v>
       </c>
       <c r="E54" t="n">
-        <v>50359.68</v>
+        <v>50448.26</v>
       </c>
       <c r="F54" t="n">
-        <v>53018.69</v>
+        <v>50827.25</v>
       </c>
       <c r="G54" t="n">
-        <v>50819.68</v>
+        <v>50248.26</v>
       </c>
       <c r="H54" t="n">
-        <v>51007.69</v>
+        <v>51841.23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="n">
-        <v>13</v>
+      <c r="B55" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C55" t="n">
+        <v>51791.24</v>
       </c>
       <c r="D55" t="n">
-        <v>49235.69</v>
+        <v>50098.26</v>
       </c>
       <c r="E55" t="n">
-        <v>50419.69</v>
+        <v>50598.26</v>
       </c>
       <c r="F55" t="n">
-        <v>53078.69</v>
+        <v>50977.25</v>
       </c>
       <c r="G55" t="n">
-        <v>50879.68</v>
+        <v>50398.26</v>
       </c>
       <c r="H55" t="n">
-        <v>51067.69</v>
+        <v>51991.23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="n">
-        <v>15</v>
+      <c r="B56" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C56" t="n">
+        <v>51941.24</v>
       </c>
       <c r="D56" t="n">
-        <v>49355.69</v>
+        <v>50248.26</v>
       </c>
       <c r="E56" t="n">
-        <v>50539.68</v>
+        <v>50748.26</v>
       </c>
       <c r="F56" t="n">
-        <v>53198.69</v>
+        <v>51127.25</v>
       </c>
       <c r="G56" t="n">
-        <v>50999.69</v>
+        <v>50548.26</v>
       </c>
       <c r="H56" t="n">
-        <v>51187.68</v>
+        <v>52141.23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="n"/>
-      <c r="C57" s="1" t="n">
-        <v>16</v>
+      <c r="B57" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C57" t="n">
+        <v>52091.24</v>
       </c>
       <c r="D57" t="n">
-        <v>49415.68</v>
+        <v>50398.26</v>
       </c>
       <c r="E57" t="n">
-        <v>50599.69</v>
+        <v>50898.26</v>
       </c>
       <c r="F57" t="n">
-        <v>53258.69</v>
+        <v>51277.25</v>
       </c>
       <c r="G57" t="n">
-        <v>51059.69</v>
+        <v>50698.26</v>
       </c>
       <c r="H57" t="n">
-        <v>51247.69</v>
+        <v>52291.23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
-      <c r="B58" s="1" t="n"/>
-      <c r="C58" s="1" t="n">
-        <v>18</v>
+      <c r="B58" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C58" t="n">
+        <v>52241.24</v>
       </c>
       <c r="D58" t="n">
-        <v>49515.68</v>
+        <v>50548.26</v>
       </c>
       <c r="E58" t="n">
-        <v>50699.69</v>
+        <v>51048.26</v>
       </c>
       <c r="F58" t="n">
-        <v>53358.69</v>
+        <v>51427.25</v>
       </c>
       <c r="G58" t="n">
-        <v>51159.69</v>
+        <v>50848.26</v>
       </c>
       <c r="H58" t="n">
-        <v>51347.69</v>
+        <v>52441.23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
-      <c r="B59" s="1" t="n"/>
-      <c r="C59" s="1" t="n">
-        <v>19</v>
+      <c r="B59" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="C59" t="n">
+        <v>52391.24</v>
       </c>
       <c r="D59" t="n">
-        <v>49365.68</v>
+        <v>50698.26</v>
       </c>
       <c r="E59" t="n">
-        <v>50549.69</v>
-      </c>
-      <c r="F59" t="inlineStr"/>
+        <v>51198.26</v>
+      </c>
+      <c r="F59" t="n">
+        <v>51577.25</v>
+      </c>
       <c r="G59" t="n">
-        <v>51009.69</v>
+        <v>50998.26</v>
       </c>
       <c r="H59" t="n">
-        <v>51197.69</v>
+        <v>52591.23</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>四季名苑2栋</t>
-        </is>
-      </c>
+      <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" s="1" t="n">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="C60" t="n">
+        <v>52391.24</v>
       </c>
       <c r="D60" t="n">
-        <v>51395.25</v>
+        <v>50698.26</v>
       </c>
       <c r="E60" t="n">
-        <v>52461.69</v>
+        <v>51198.26</v>
       </c>
       <c r="F60" t="n">
-        <v>52069.69</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+        <v>51577.25</v>
+      </c>
+      <c r="G60" t="n">
+        <v>50998.26</v>
+      </c>
+      <c r="H60" t="n">
+        <v>52591.23</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="n"/>
-      <c r="C61" s="1" t="n">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>松风明月花园7栋--</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="C61" t="n">
+        <v>48410.51</v>
+      </c>
       <c r="D61" t="n">
-        <v>51694.69</v>
+        <v>48410.51</v>
       </c>
       <c r="E61" t="n">
-        <v>52861.69</v>
+        <v>49327.52</v>
       </c>
       <c r="F61" t="n">
-        <v>52469.69</v>
+        <v>49160.52</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
-      <c r="B62" s="1" t="n"/>
-      <c r="C62" s="1" t="n">
+      <c r="B62" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="C62" t="n">
+        <v>48560.52</v>
+      </c>
       <c r="D62" t="n">
-        <v>51994.69</v>
+        <v>48560.52</v>
       </c>
       <c r="E62" t="n">
-        <v>53261.69</v>
+        <v>49477.51</v>
       </c>
       <c r="F62" t="n">
-        <v>52869.69</v>
+        <v>49310.51</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
-      <c r="B63" s="1" t="n"/>
-      <c r="C63" s="1" t="n">
+      <c r="B63" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="C63" t="n">
+        <v>48560.52</v>
+      </c>
       <c r="D63" t="n">
-        <v>52294.69</v>
+        <v>48560.52</v>
       </c>
       <c r="E63" t="n">
-        <v>53661.69</v>
+        <v>49477.51</v>
       </c>
       <c r="F63" t="n">
-        <v>53269.69</v>
+        <v>49310.51</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
-      <c r="B64" s="1" t="n"/>
-      <c r="C64" s="1" t="n">
+      <c r="B64" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="C64" t="n">
+        <v>48710.51</v>
+      </c>
       <c r="D64" t="n">
-        <v>52374.68</v>
+        <v>48710.51</v>
       </c>
       <c r="E64" t="n">
-        <v>53741.68</v>
+        <v>49627.52</v>
       </c>
       <c r="F64" t="n">
-        <v>53349.69</v>
+        <v>49460.52</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="n"/>
-      <c r="C65" s="1" t="n">
+      <c r="B65" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="C65" t="n">
+        <v>48860.52</v>
+      </c>
       <c r="D65" t="n">
-        <v>52454.68</v>
+        <v>48860.52</v>
       </c>
       <c r="E65" t="n">
-        <v>53821.68</v>
+        <v>49777.51</v>
       </c>
       <c r="F65" t="n">
-        <v>53429.69</v>
+        <v>49610.51</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
-      <c r="B66" s="1" t="n"/>
-      <c r="C66" s="1" t="n">
-        <v>17</v>
+      <c r="B66" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C66" t="n">
+        <v>49010.51</v>
       </c>
       <c r="D66" t="n">
-        <v>53254.68</v>
+        <v>49010.51</v>
       </c>
       <c r="E66" t="n">
-        <v>54621.68</v>
+        <v>49927.52</v>
       </c>
       <c r="F66" t="n">
-        <v>54229.69</v>
+        <v>49760.52</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="n"/>
-      <c r="C67" s="1" t="n">
-        <v>18</v>
+      <c r="B67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C67" t="n">
+        <v>49160.52</v>
       </c>
       <c r="D67" t="n">
-        <v>53334.69</v>
+        <v>49160.52</v>
       </c>
       <c r="E67" t="n">
-        <v>54701.69</v>
+        <v>50077.51</v>
       </c>
       <c r="F67" t="n">
-        <v>54309.69</v>
+        <v>49910.51</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="n"/>
-      <c r="C68" s="1" t="n">
-        <v>19</v>
+      <c r="B68" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C68" t="n">
+        <v>49310.51</v>
       </c>
       <c r="D68" t="n">
-        <v>53414.69</v>
+        <v>49310.51</v>
       </c>
       <c r="E68" t="n">
-        <v>54781.69</v>
+        <v>50227.52</v>
       </c>
       <c r="F68" t="n">
-        <v>54389.69</v>
+        <v>50060.52</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="n"/>
-      <c r="C69" s="1" t="n">
-        <v>20</v>
+      <c r="B69" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C69" t="n">
+        <v>49460.52</v>
       </c>
       <c r="D69" t="n">
-        <v>53494.69</v>
+        <v>49460.52</v>
       </c>
       <c r="E69" t="n">
-        <v>54861.69</v>
+        <v>50377.51</v>
       </c>
       <c r="F69" t="n">
-        <v>54469.69</v>
+        <v>50210.51</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
-      <c r="B70" s="1" t="n"/>
-      <c r="C70" s="1" t="n">
-        <v>21</v>
+      <c r="B70" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C70" t="n">
+        <v>49610.51</v>
       </c>
       <c r="D70" t="n">
-        <v>53574.68</v>
+        <v>49610.51</v>
       </c>
       <c r="E70" t="n">
-        <v>54941.68</v>
+        <v>50527.52</v>
       </c>
       <c r="F70" t="n">
-        <v>54549.69</v>
+        <v>50360.52</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="n"/>
-      <c r="C71" s="1" t="n">
-        <v>22</v>
+      <c r="B71" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C71" t="n">
+        <v>49760.52</v>
       </c>
       <c r="D71" t="n">
-        <v>53654.68</v>
+        <v>49760.52</v>
       </c>
       <c r="E71" t="n">
-        <v>55021.68</v>
+        <v>50677.51</v>
       </c>
       <c r="F71" t="n">
-        <v>54629.69</v>
+        <v>50510.51</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
-      <c r="B72" s="1" t="n"/>
-      <c r="C72" s="1" t="n">
-        <v>23</v>
+      <c r="B72" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C72" t="n">
+        <v>49760.52</v>
       </c>
       <c r="D72" t="n">
-        <v>54004.68</v>
+        <v>49760.52</v>
       </c>
       <c r="E72" t="n">
-        <v>55371.68</v>
+        <v>50677.51</v>
       </c>
       <c r="F72" t="n">
-        <v>54979.69</v>
+        <v>50510.51</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n"/>
-      <c r="C73" s="1" t="n">
-        <v>24</v>
+      <c r="B73" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C73" t="n">
+        <v>49910.51</v>
       </c>
       <c r="D73" t="n">
-        <v>54354.68</v>
+        <v>49910.51</v>
       </c>
       <c r="E73" t="n">
-        <v>55721.68</v>
+        <v>50827.52</v>
       </c>
       <c r="F73" t="n">
-        <v>55329.69</v>
+        <v>50660.52</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
-      <c r="B74" s="1" t="n"/>
-      <c r="C74" s="1" t="n">
-        <v>25</v>
+      <c r="B74" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C74" t="n">
+        <v>50060.52</v>
       </c>
       <c r="D74" t="n">
-        <v>54704.68</v>
+        <v>50060.52</v>
       </c>
       <c r="E74" t="n">
-        <v>56071.68</v>
+        <v>50977.51</v>
       </c>
       <c r="F74" t="n">
-        <v>55679.69</v>
+        <v>50810.51</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
-      <c r="B75" s="1" t="n"/>
-      <c r="C75" s="1" t="n">
-        <v>26</v>
+      <c r="B75" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C75" t="n">
+        <v>50210.51</v>
       </c>
       <c r="D75" t="n">
-        <v>55054.68</v>
+        <v>50210.51</v>
       </c>
       <c r="E75" t="n">
-        <v>56421.68</v>
+        <v>51127.52</v>
       </c>
       <c r="F75" t="n">
-        <v>56029.69</v>
+        <v>50960.52</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
-      <c r="B76" s="1" t="n"/>
-      <c r="C76" s="1" t="n">
-        <v>27</v>
+      <c r="B76" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C76" t="n">
+        <v>50360.52</v>
       </c>
       <c r="D76" t="n">
-        <v>55404.68</v>
+        <v>50360.52</v>
       </c>
       <c r="E76" t="n">
-        <v>56771.68</v>
+        <v>51277.51</v>
       </c>
       <c r="F76" t="n">
-        <v>56379.69</v>
+        <v>51110.51</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
-      <c r="B77" s="1" t="n"/>
-      <c r="C77" s="1" t="n">
-        <v>28</v>
+      <c r="B77" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C77" t="n">
+        <v>50510.51</v>
       </c>
       <c r="D77" t="n">
-        <v>55754.68</v>
+        <v>50510.51</v>
       </c>
       <c r="E77" t="n">
-        <v>57121.68</v>
+        <v>51427.52</v>
       </c>
       <c r="F77" t="n">
-        <v>56729.69</v>
+        <v>51260.52</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n"/>
-      <c r="B78" s="1" t="n"/>
-      <c r="C78" s="1" t="n">
-        <v>29</v>
+      <c r="B78" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C78" t="n">
+        <v>50660.52</v>
       </c>
       <c r="D78" t="n">
-        <v>55904.68</v>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+        <v>50660.52</v>
+      </c>
+      <c r="E78" t="n">
+        <v>51577.51</v>
+      </c>
+      <c r="F78" t="n">
+        <v>51410.51</v>
+      </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
     </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C79" t="n">
+        <v>50810.51</v>
+      </c>
+      <c r="D79" t="n">
+        <v>50810.51</v>
+      </c>
+      <c r="E79" t="n">
+        <v>51727.52</v>
+      </c>
+      <c r="F79" t="n">
+        <v>51560.52</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C80" t="n">
+        <v>50960.52</v>
+      </c>
+      <c r="D80" t="n">
+        <v>50960.52</v>
+      </c>
+      <c r="E80" t="n">
+        <v>51877.51</v>
+      </c>
+      <c r="F80" t="n">
+        <v>51710.51</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C81" t="n">
+        <v>51110.51</v>
+      </c>
+      <c r="D81" t="n">
+        <v>51110.51</v>
+      </c>
+      <c r="E81" t="n">
+        <v>52027.52</v>
+      </c>
+      <c r="F81" t="n">
+        <v>51860.52</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C82" t="n">
+        <v>51110.51</v>
+      </c>
+      <c r="D82" t="n">
+        <v>51110.51</v>
+      </c>
+      <c r="E82" t="n">
+        <v>52027.52</v>
+      </c>
+      <c r="F82" t="n">
+        <v>51860.52</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C83" t="n">
+        <v>51260.52</v>
+      </c>
+      <c r="D83" t="n">
+        <v>51260.52</v>
+      </c>
+      <c r="E83" t="n">
+        <v>52177.51</v>
+      </c>
+      <c r="F83" t="n">
+        <v>52010.51</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C84" t="n">
+        <v>51410.51</v>
+      </c>
+      <c r="D84" t="n">
+        <v>51410.51</v>
+      </c>
+      <c r="E84" t="n">
+        <v>52327.52</v>
+      </c>
+      <c r="F84" t="n">
+        <v>52160.52</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C85" t="n">
+        <v>51560.52</v>
+      </c>
+      <c r="D85" t="n">
+        <v>51560.52</v>
+      </c>
+      <c r="E85" t="n">
+        <v>52477.51</v>
+      </c>
+      <c r="F85" t="n">
+        <v>52310.51</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C86" t="n">
+        <v>51710.51</v>
+      </c>
+      <c r="D86" t="n">
+        <v>51710.51</v>
+      </c>
+      <c r="E86" t="n">
+        <v>52627.52</v>
+      </c>
+      <c r="F86" t="n">
+        <v>52460.52</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C87" t="n">
+        <v>51860.52</v>
+      </c>
+      <c r="D87" t="n">
+        <v>51860.52</v>
+      </c>
+      <c r="E87" t="n">
+        <v>52777.51</v>
+      </c>
+      <c r="F87" t="n">
+        <v>52610.51</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C88" t="n">
+        <v>52010.51</v>
+      </c>
+      <c r="D88" t="n">
+        <v>52010.51</v>
+      </c>
+      <c r="E88" t="n">
+        <v>52927.52</v>
+      </c>
+      <c r="F88" t="n">
+        <v>52760.52</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="C89" t="n">
+        <v>52160.52</v>
+      </c>
+      <c r="D89" t="n">
+        <v>52160.52</v>
+      </c>
+      <c r="E89" t="n">
+        <v>53077.51</v>
+      </c>
+      <c r="F89" t="n">
+        <v>52910.51</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="C90" t="n">
+        <v>52160.52</v>
+      </c>
+      <c r="D90" t="n">
+        <v>52160.52</v>
+      </c>
+      <c r="E90" t="n">
+        <v>53077.51</v>
+      </c>
+      <c r="F90" t="n">
+        <v>52910.51</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A59"/>
-    <mergeCell ref="A60:A78"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B28"/>
-    <mergeCell ref="B29:B47"/>
-    <mergeCell ref="B48:B59"/>
-    <mergeCell ref="B60:B78"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A30"/>
+    <mergeCell ref="A31:A60"/>
+    <mergeCell ref="A61:A90"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
